--- a/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>中海量化策略混合</t>
   </si>
   <si>
+    <t>6.10</t>
+  </si>
+  <si>
     <t>95.40</t>
   </si>
   <si>
     <t>3.92</t>
+  </si>
+  <si>
+    <t>0.2391</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>398041</t>
-  </si>
-  <si>
-    <t>中海量化策略混合</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>95.40</t>
-  </si>
-  <si>
-    <t>3.92</t>
-  </si>
-  <si>
-    <t>0.2391</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,17 +766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -785,14 +806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +844,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1634,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1650,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1247,7 +1548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1379,7 +1680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1587,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000728-国元证券.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -583,6 +600,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -998,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1548,7 +1963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1680,7 +2095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +2303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
